--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/IDAHO_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/IDAHO_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D835"/>
+  <dimension ref="A1:D829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>EL LLANO</t>
+          <t>El Llano</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C7">
@@ -465,12 +465,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C9">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TECATE</t>
+          <t>Tecate</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12">
@@ -535,12 +535,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COMONDÚ</t>
+          <t>Comondú</t>
         </is>
       </c>
       <c r="C13">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>MULEGÉ</t>
+          <t>Mulegé</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16">
@@ -592,12 +592,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CANDELARIA</t>
+          <t>Candelaria</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C19">
@@ -636,12 +636,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>AMATENANGO DEL VALLE</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>BELLA VISTA</t>
+          <t>Bella Vista</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHALCHIHUITÁN</t>
+          <t>Chalchihuitán</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHILÓN</t>
+          <t>Chilón</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRONTERA HIDALGO</t>
+          <t>Frontera Hidalgo</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>IXTAPA</t>
+          <t>Ixtapa</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>JITOTOL</t>
+          <t>Jitotol</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>LA GRANDEZA</t>
+          <t>La Grandeza</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAZATÁN</t>
+          <t>Mazatán</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>METAPA</t>
+          <t>Metapa</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>MONTECRISTO DE GUERRERO</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>SITALÁ</t>
+          <t>Sitalá</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>SOCOLTENANGO</t>
+          <t>Socoltenango</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAPALAPA</t>
+          <t>Tapalapa</t>
         </is>
       </c>
       <c r="C57">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>TILA</t>
+          <t>Tila</t>
         </is>
       </c>
       <c r="C59">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>TZIMOL</t>
+          <t>Tzimol</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C64">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>YAJALÓN</t>
+          <t>Yajalón</t>
         </is>
       </c>
       <c r="C65">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C66">
@@ -1252,12 +1252,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C67">
@@ -1270,7 +1270,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>BACHÍNIVA</t>
+          <t>Bachíniva</t>
         </is>
       </c>
       <c r="C68">
@@ -1283,7 +1283,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>BUENAVENTURA</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="C69">
@@ -1296,7 +1296,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C70">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C71">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>CHÍNIPAS</t>
+          <t>Chínipas</t>
         </is>
       </c>
       <c r="C72">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C73">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C74">
@@ -1361,7 +1361,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>GALEANA</t>
+          <t>Galeana</t>
         </is>
       </c>
       <c r="C75">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C76">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C77">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C78">
@@ -1413,7 +1413,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>IGNACIO ZARAGOZA</t>
+          <t>Ignacio Zaragoza</t>
         </is>
       </c>
       <c r="C79">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C80">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>LA CRUZ</t>
+          <t>La Cruz</t>
         </is>
       </c>
       <c r="C81">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>MADERA</t>
+          <t>Madera</t>
         </is>
       </c>
       <c r="C82">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>MEOQUI</t>
+          <t>Meoqui</t>
         </is>
       </c>
       <c r="C83">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C84">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>MORIS</t>
+          <t>Moris</t>
         </is>
       </c>
       <c r="C85">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>NAMIQUIPA</t>
+          <t>Namiquipa</t>
         </is>
       </c>
       <c r="C86">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C87">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C88">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>RIVA PALACIO</t>
+          <t>Riva Palacio</t>
         </is>
       </c>
       <c r="C89">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>Rosales</t>
         </is>
       </c>
       <c r="C90">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C91">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL ORO</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C92">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="C93">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>SAUCILLO</t>
+          <t>Saucillo</t>
         </is>
       </c>
       <c r="C94">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>TEMÓSACHIC</t>
+          <t>Temósachic</t>
         </is>
       </c>
       <c r="C95">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C96">
@@ -1647,12 +1647,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C97">
@@ -1665,7 +1665,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C98">
@@ -1678,7 +1678,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C99">
@@ -1691,7 +1691,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C100">
@@ -1704,7 +1704,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C101">
@@ -1717,7 +1717,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C102">
@@ -1730,7 +1730,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C103">
@@ -1743,7 +1743,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C104">
@@ -1756,7 +1756,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C105">
@@ -1769,7 +1769,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C106">
@@ -1782,7 +1782,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C107">
@@ -1795,7 +1795,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C108">
@@ -1808,7 +1808,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C109">
@@ -1821,7 +1821,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C110">
@@ -1834,7 +1834,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C111">
@@ -1847,12 +1847,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C112">
@@ -1865,7 +1865,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C113">
@@ -1878,7 +1878,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C114">
@@ -1891,7 +1891,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C115">
@@ -1904,7 +1904,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>VIESCA</t>
+          <t>Viesca</t>
         </is>
       </c>
       <c r="C116">
@@ -1917,7 +1917,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C117">
@@ -1930,12 +1930,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ARMERÍA</t>
+          <t>Armería</t>
         </is>
       </c>
       <c r="C118">
@@ -1948,7 +1948,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C119">
@@ -1961,7 +1961,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>COMALA</t>
+          <t>Comala</t>
         </is>
       </c>
       <c r="C120">
@@ -1974,7 +1974,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>COQUIMATLÁN</t>
+          <t>Coquimatlán</t>
         </is>
       </c>
       <c r="C121">
@@ -1987,7 +1987,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN</t>
+          <t>Ixtlahuacán</t>
         </is>
       </c>
       <c r="C122">
@@ -2000,7 +2000,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C123">
@@ -2013,7 +2013,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C124">
@@ -2026,7 +2026,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C125">
@@ -2039,7 +2039,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>VILLA DE ÁLVAREZ</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C126">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C127">
@@ -2065,12 +2065,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C128">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUENCAMÉ</t>
+          <t>Cuencamé</t>
         </is>
       </c>
       <c r="C129">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C130">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C131">
@@ -2122,7 +2122,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C132">
@@ -2135,7 +2135,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C133">
@@ -2148,7 +2148,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C134">
@@ -2161,7 +2161,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C135">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C136">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C137">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>NUEVO IDEAL</t>
+          <t>Nuevo Ideal</t>
         </is>
       </c>
       <c r="C138">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>PEÑÓN BLANCO</t>
+          <t>Peñón Blanco</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>POANAS</t>
+          <t>Poanas</t>
         </is>
       </c>
       <c r="C140">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C141">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>RODEO</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="C142">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>SAN BERNARDO</t>
+          <t>San Bernardo</t>
         </is>
       </c>
       <c r="C143">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>SAN DIMAS</t>
+          <t>San Dimas</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>TAMAZULA</t>
+          <t>Tamazula</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>TEPEHUANES</t>
+          <t>Tepehuanes</t>
         </is>
       </c>
       <c r="C147">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>TOPIA</t>
+          <t>Topia</t>
         </is>
       </c>
       <c r="C148">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,12 +2369,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>ACULCO</t>
+          <t>Aculco</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>COACALCO DE BERRIOZÁBAL</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN IZCALLI</t>
+          <t>Cuautitlán Izcalli</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>MALINALCO</t>
+          <t>Malinalco</t>
         </is>
       </c>
       <c r="C170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>OTUMBA</t>
+          <t>Otumba</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>SAN SIMÓN DE GUERRERO</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>SOYANIQUILPAN DE JUÁREZ</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C181">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>TEQUIXQUIAC</t>
+          <t>Tequixquiac</t>
         </is>
       </c>
       <c r="C184">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>TEXCALTITLÁN</t>
+          <t>Texcaltitlán</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>TEZOYUCA</t>
+          <t>Tezoyuca</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>TLALMANALCO</t>
+          <t>Tlalmanalco</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>VILLA DE ALLENDE</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C196">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>ZINACANTEPEC</t>
+          <t>Zinacantepec</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>ZUMPANGO</t>
+          <t>Zumpango</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,12 +3011,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C200">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C201">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>ATARJEA</t>
+          <t>Atarjea</t>
         </is>
       </c>
       <c r="C203">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C204">
@@ -3081,7 +3081,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C205">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C206">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C207">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C208">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C209">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C210">
@@ -3159,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C211">
@@ -3172,7 +3172,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C212">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C213">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C214">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C217">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>ROMITA</t>
+          <t>Romita</t>
         </is>
       </c>
       <c r="C218">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C219">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C221">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C222">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>TARANDACUAO</t>
+          <t>Tarandacuao</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C230">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C232">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C233">
@@ -3458,12 +3458,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C234">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C235">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>APAXTLA</t>
+          <t>Apaxtla</t>
         </is>
       </c>
       <c r="C236">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C237">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>ATENANGO DEL RÍO</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C240">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C241">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C244">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>COPALA</t>
+          <t>Copala</t>
         </is>
       </c>
       <c r="C245">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>COPALILLO</t>
+          <t>Copalillo</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C248">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C249">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C250">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>IXCATEOPAN DE CUAUHTÉMOC</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>LA UNIÓN DE ISIDORO MONTES DE OCA</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C255">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>LEONARDO BRAVO</t>
+          <t>Leonardo Bravo</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>Mochitlán</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>PEDRO ASCENCIO ALQUISIRAS</t>
+          <t>Pedro Ascencio Alquisiras</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>PILCAYA</t>
+          <t>Pilcaya</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>TLALCHAPA</t>
+          <t>Tlalchapa</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>XOCHISTLAHUACA</t>
+          <t>Xochistlahuaca</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,12 +4048,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C279">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C280">
@@ -4079,7 +4079,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C281">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C282">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>EPAZOYUCAN</t>
+          <t>Epazoyucan</t>
         </is>
       </c>
       <c r="C283">
@@ -4118,7 +4118,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C284">
@@ -4131,7 +4131,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C285">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C286">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>MINERAL DE LA REFORMA</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C287">
@@ -4170,7 +4170,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>MINERAL DEL CHICO</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C288">
@@ -4183,7 +4183,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>NOPALA DE VILLAGRÁN</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C289">
@@ -4196,7 +4196,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C290">
@@ -4209,7 +4209,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN METZQUITITLÁN</t>
+          <t>San Agustín Metzquititlán</t>
         </is>
       </c>
       <c r="C291">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
+          <t>San Bartolo Tutotepec</t>
         </is>
       </c>
       <c r="C292">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>SANTIAGO DE ANAYA</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C293">
@@ -4248,7 +4248,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>TASQUILLO</t>
+          <t>Tasquillo</t>
         </is>
       </c>
       <c r="C294">
@@ -4261,7 +4261,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C295">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>TEPEJI DEL RÍO DE OCAMPO</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C296">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>TLAHUILTEPA</t>
+          <t>Tlahuiltepa</t>
         </is>
       </c>
       <c r="C297">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C298">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C299">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C301">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C302">
@@ -4365,12 +4365,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ACATLÁN DE JUÁREZ</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C303">
@@ -4383,7 +4383,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>AMATITÁN</t>
+          <t>Amatitán</t>
         </is>
       </c>
       <c r="C304">
@@ -4396,7 +4396,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C305">
@@ -4409,7 +4409,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C306">
@@ -4422,7 +4422,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL ALTO</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C307">
@@ -4435,7 +4435,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C308">
@@ -4448,7 +4448,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C309">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C310">
@@ -4474,7 +4474,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C311">
@@ -4487,7 +4487,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>CABO CORRIENTES</t>
+          <t>Cabo Corrientes</t>
         </is>
       </c>
       <c r="C312">
@@ -4500,7 +4500,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C313">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>CAÑADAS DE OBREGÓN</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C314">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>CHAPALA</t>
+          <t>Chapala</t>
         </is>
       </c>
       <c r="C315">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C316">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DE BUENOS AIRES</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C317">
@@ -4565,7 +4565,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C318">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C319">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C320">
@@ -4604,7 +4604,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>GUACHINANGO</t>
+          <t>Guachinango</t>
         </is>
       </c>
       <c r="C321">
@@ -4617,7 +4617,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C322">
@@ -4630,7 +4630,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>HOSTOTIPAQUILLO</t>
+          <t>Hostotipaquillo</t>
         </is>
       </c>
       <c r="C323">
@@ -4643,7 +4643,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>HUEJUQUILLA EL ALTO</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C324">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DE LOS MEMBRILLOS</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C325">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C326">
@@ -4682,7 +4682,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>JALOSTOTITLÁN</t>
+          <t>Jalostotitlán</t>
         </is>
       </c>
       <c r="C327">
@@ -4695,7 +4695,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C328">
@@ -4708,7 +4708,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C329">
@@ -4721,7 +4721,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>LA HUERTA</t>
+          <t>La Huerta</t>
         </is>
       </c>
       <c r="C330">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C331">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C332">
@@ -4760,7 +4760,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>MEZQUITIC</t>
+          <t>Mezquitic</t>
         </is>
       </c>
       <c r="C333">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C334">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C335">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>PIHUAMO</t>
+          <t>Pihuamo</t>
         </is>
       </c>
       <c r="C336">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>PONCITLÁN</t>
+          <t>Poncitlán</t>
         </is>
       </c>
       <c r="C337">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C338">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LOS LAGOS</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C339">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>SAN JUANITO DE ESCOBEDO</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C340">
@@ -4864,7 +4864,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE BOLAÑOS</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C341">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C342">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C343">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN DEL OESTE</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C344">
@@ -4916,7 +4916,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL ORO</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C345">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>SAYULA</t>
+          <t>Sayula</t>
         </is>
       </c>
       <c r="C346">
@@ -4942,7 +4942,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C347">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C348">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>TAPALPA</t>
+          <t>Tapalpa</t>
         </is>
       </c>
       <c r="C349">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C350">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>TEOCUITATLÁN DE CORONA</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C351">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C352">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C353">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C354">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C355">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>VALLE DE JUÁREZ</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C356">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>VILLA CORONA</t>
+          <t>Villa Corona</t>
         </is>
       </c>
       <c r="C357">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C358">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>VILLA PURIFICACIÓN</t>
+          <t>Villa Purificación</t>
         </is>
       </c>
       <c r="C359">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>YAHUALICA DE GONZÁLEZ GALLO</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C360">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>ZACOALCO DE TORRES</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C362">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>ZAPOTILTIC</t>
+          <t>Zapotiltic</t>
         </is>
       </c>
       <c r="C363">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN DE VADILLO</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C364">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C365">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN DEL REY</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C366">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,12 +5228,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ACUITZIO</t>
+          <t>Acuitzio</t>
         </is>
       </c>
       <c r="C369">
@@ -5246,7 +5246,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>AGUILILLA</t>
+          <t>Aguililla</t>
         </is>
       </c>
       <c r="C370">
@@ -5259,7 +5259,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>ANGAMACUTIRO</t>
+          <t>Angamacutiro</t>
         </is>
       </c>
       <c r="C371">
@@ -5272,7 +5272,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C372">
@@ -5285,7 +5285,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C373">
@@ -5298,7 +5298,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>ARTEAGA</t>
+          <t>Arteaga</t>
         </is>
       </c>
       <c r="C374">
@@ -5311,7 +5311,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C375">
@@ -5324,7 +5324,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C376">
@@ -5337,7 +5337,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>CHARAPAN</t>
+          <t>Charapan</t>
         </is>
       </c>
       <c r="C377">
@@ -5350,7 +5350,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>CHARO</t>
+          <t>Charo</t>
         </is>
       </c>
       <c r="C378">
@@ -5363,7 +5363,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>CHILCHOTA</t>
+          <t>Chilchota</t>
         </is>
       </c>
       <c r="C379">
@@ -5376,7 +5376,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>CHINICUILA</t>
+          <t>Chinicuila</t>
         </is>
       </c>
       <c r="C380">
@@ -5389,7 +5389,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>CHUCÁNDIRO</t>
+          <t>Chucándiro</t>
         </is>
       </c>
       <c r="C381">
@@ -5402,7 +5402,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>CHURUMUCO</t>
+          <t>Churumuco</t>
         </is>
       </c>
       <c r="C382">
@@ -5415,7 +5415,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>COAHUAYANA</t>
+          <t>Coahuayana</t>
         </is>
       </c>
       <c r="C383">
@@ -5428,7 +5428,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C384">
@@ -5441,7 +5441,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>COENEO</t>
+          <t>Coeneo</t>
         </is>
       </c>
       <c r="C385">
@@ -5454,7 +5454,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C386">
@@ -5467,7 +5467,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>COPÁNDARO</t>
+          <t>Copándaro</t>
         </is>
       </c>
       <c r="C387">
@@ -5480,7 +5480,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C388">
@@ -5493,7 +5493,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>ERONGARÍCUARO</t>
+          <t>Erongarícuaro</t>
         </is>
       </c>
       <c r="C389">
@@ -5506,7 +5506,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>GABRIEL ZAMORA</t>
+          <t>Gabriel Zamora</t>
         </is>
       </c>
       <c r="C390">
@@ -5519,7 +5519,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C391">
@@ -5532,7 +5532,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>HUANDACAREO</t>
+          <t>Huandacareo</t>
         </is>
       </c>
       <c r="C392">
@@ -5545,7 +5545,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>HUANIQUEO</t>
+          <t>Huaniqueo</t>
         </is>
       </c>
       <c r="C393">
@@ -5558,7 +5558,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C394">
@@ -5571,7 +5571,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>INDAPARAPEO</t>
+          <t>Indaparapeo</t>
         </is>
       </c>
       <c r="C395">
@@ -5584,7 +5584,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>IRIMBO</t>
+          <t>Irimbo</t>
         </is>
       </c>
       <c r="C396">
@@ -5597,7 +5597,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>JACONA</t>
+          <t>Jacona</t>
         </is>
       </c>
       <c r="C397">
@@ -5610,7 +5610,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C398">
@@ -5623,7 +5623,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>JIQUILPAN</t>
+          <t>Jiquilpan</t>
         </is>
       </c>
       <c r="C399">
@@ -5636,7 +5636,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>JOSÉ SIXTO VERDUZCO</t>
+          <t>José Sixto Verduzco</t>
         </is>
       </c>
       <c r="C400">
@@ -5649,7 +5649,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>JUNGAPEO</t>
+          <t>Jungapeo</t>
         </is>
       </c>
       <c r="C401">
@@ -5662,7 +5662,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C402">
@@ -5675,7 +5675,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C403">
@@ -5688,7 +5688,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C404">
@@ -5701,7 +5701,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C405">
@@ -5714,7 +5714,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C406">
@@ -5727,7 +5727,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>Madero</t>
         </is>
       </c>
       <c r="C407">
@@ -5740,7 +5740,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C408">
@@ -5753,7 +5753,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C409">
@@ -5766,7 +5766,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C410">
@@ -5779,7 +5779,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C411">
@@ -5792,7 +5792,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C412">
@@ -5805,7 +5805,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C413">
@@ -5818,7 +5818,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>NUEVO PARANGARICUTIRO</t>
+          <t>Nuevo Parangaricutiro</t>
         </is>
       </c>
       <c r="C414">
@@ -5831,7 +5831,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>NUEVO URECHO</t>
+          <t>Nuevo Urecho</t>
         </is>
       </c>
       <c r="C415">
@@ -5844,7 +5844,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>NUMARÁN</t>
+          <t>Numarán</t>
         </is>
       </c>
       <c r="C416">
@@ -5857,7 +5857,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C417">
@@ -5870,7 +5870,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>PANINDÍCUARO</t>
+          <t>Panindícuaro</t>
         </is>
       </c>
       <c r="C418">
@@ -5883,7 +5883,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>PARÁCUARO</t>
+          <t>Parácuaro</t>
         </is>
       </c>
       <c r="C419">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>PENJAMILLO</t>
+          <t>Penjamillo</t>
         </is>
       </c>
       <c r="C420">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>PERIBÁN</t>
+          <t>Peribán</t>
         </is>
       </c>
       <c r="C421">
@@ -5922,7 +5922,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C422">
@@ -5935,7 +5935,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C423">
@@ -5948,7 +5948,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C424">
@@ -5961,7 +5961,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C425">
@@ -5974,7 +5974,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>SALVADOR ESCALANTE</t>
+          <t>Salvador Escalante</t>
         </is>
       </c>
       <c r="C426">
@@ -5987,7 +5987,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>SANTA ANA MAYA</t>
+          <t>Santa Ana Maya</t>
         </is>
       </c>
       <c r="C427">
@@ -6000,7 +6000,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>SENGUIO</t>
+          <t>Senguio</t>
         </is>
       </c>
       <c r="C428">
@@ -6013,7 +6013,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>SUSUPUATO</t>
+          <t>Susupuato</t>
         </is>
       </c>
       <c r="C429">
@@ -6026,7 +6026,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>TACÁMBARO</t>
+          <t>Tacámbaro</t>
         </is>
       </c>
       <c r="C430">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C431">
@@ -6052,7 +6052,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C432">
@@ -6065,7 +6065,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C433">
@@ -6078,7 +6078,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>TANHUATO</t>
+          <t>Tanhuato</t>
         </is>
       </c>
       <c r="C434">
@@ -6091,7 +6091,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>TARETAN</t>
+          <t>Taretan</t>
         </is>
       </c>
       <c r="C435">
@@ -6104,7 +6104,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C436">
@@ -6117,7 +6117,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>TINGUINDÍN</t>
+          <t>Tinguindín</t>
         </is>
       </c>
       <c r="C437">
@@ -6130,7 +6130,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>TINGÜINDÍN</t>
+          <t>Tingüindín</t>
         </is>
       </c>
       <c r="C438">
@@ -6143,7 +6143,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C439">
@@ -6156,7 +6156,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>TLALPUJAHUA</t>
+          <t>Tlalpujahua</t>
         </is>
       </c>
       <c r="C440">
@@ -6169,7 +6169,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>TOCUMBO</t>
+          <t>Tocumbo</t>
         </is>
       </c>
       <c r="C441">
@@ -6182,7 +6182,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C442">
@@ -6195,7 +6195,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C443">
@@ -6208,7 +6208,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C444">
@@ -6221,7 +6221,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>TZINTZUNTZAN</t>
+          <t>Tzintzuntzan</t>
         </is>
       </c>
       <c r="C445">
@@ -6234,7 +6234,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C446">
@@ -6247,7 +6247,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C447">
@@ -6260,7 +6260,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C448">
@@ -6273,7 +6273,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>VISTA HERMOSA</t>
+          <t>Vista Hermosa</t>
         </is>
       </c>
       <c r="C449">
@@ -6286,7 +6286,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C450">
@@ -6299,7 +6299,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C451">
@@ -6312,7 +6312,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C452">
@@ -6325,7 +6325,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C453">
@@ -6338,7 +6338,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>ZINÁPARO</t>
+          <t>Zináparo</t>
         </is>
       </c>
       <c r="C454">
@@ -6351,7 +6351,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>ZIRACUARETIRO</t>
+          <t>Ziracuaretiro</t>
         </is>
       </c>
       <c r="C455">
@@ -6364,7 +6364,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C456">
@@ -6377,7 +6377,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C457">
@@ -6390,7 +6390,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C458">
@@ -6403,12 +6403,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AXOCHIAPAN</t>
+          <t>Axochiapan</t>
         </is>
       </c>
       <c r="C459">
@@ -6421,7 +6421,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C460">
@@ -6434,7 +6434,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C461">
@@ -6447,7 +6447,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C462">
@@ -6460,7 +6460,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>JIUTEPEC</t>
+          <t>Jiutepec</t>
         </is>
       </c>
       <c r="C463">
@@ -6473,7 +6473,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C464">
@@ -6486,7 +6486,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C465">
@@ -6499,7 +6499,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>TEPALCINGO</t>
+          <t>Tepalcingo</t>
         </is>
       </c>
       <c r="C466">
@@ -6512,7 +6512,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>TETELA DEL VOLCÁN</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C467">
@@ -6525,7 +6525,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C468">
@@ -6538,7 +6538,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>TOTOLAPAN</t>
+          <t>Totolapan</t>
         </is>
       </c>
       <c r="C469">
@@ -6551,7 +6551,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>XOCHITEPEC</t>
+          <t>Xochitepec</t>
         </is>
       </c>
       <c r="C470">
@@ -6564,7 +6564,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C471">
@@ -6577,7 +6577,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C472">
@@ -6590,7 +6590,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C473">
@@ -6603,12 +6603,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>ACAPONETA</t>
+          <t>Acaponeta</t>
         </is>
       </c>
       <c r="C474">
@@ -6621,7 +6621,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C475">
@@ -6634,7 +6634,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMATLÁN DE CAÑAS</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C476">
@@ -6647,7 +6647,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>BAHÍA DE BANDERAS</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C477">
@@ -6660,7 +6660,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C478">
@@ -6673,7 +6673,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>DEL NAYAR</t>
+          <t>Del Nayar</t>
         </is>
       </c>
       <c r="C479">
@@ -6686,7 +6686,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>IXTLÁN DEL RÍO</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C480">
@@ -6699,7 +6699,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C481">
@@ -6712,7 +6712,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>ROSAMORADA</t>
+          <t>Rosamorada</t>
         </is>
       </c>
       <c r="C482">
@@ -6725,7 +6725,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>RUÍZ</t>
+          <t>Ruíz</t>
         </is>
       </c>
       <c r="C483">
@@ -6738,7 +6738,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C484">
@@ -6751,7 +6751,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>SAN PEDRO LAGUNILLAS</t>
+          <t>San Pedro Lagunillas</t>
         </is>
       </c>
       <c r="C485">
@@ -6764,7 +6764,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL ORO</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C486">
@@ -6777,7 +6777,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C487">
@@ -6790,7 +6790,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>TECUALA</t>
+          <t>Tecuala</t>
         </is>
       </c>
       <c r="C488">
@@ -6803,7 +6803,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C489">
@@ -6816,7 +6816,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C490">
@@ -6829,7 +6829,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>XALISCO</t>
+          <t>Xalisco</t>
         </is>
       </c>
       <c r="C491">
@@ -6842,7 +6842,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C492">
@@ -6855,12 +6855,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>GENERAL TERÁN</t>
+          <t>General Terán</t>
         </is>
       </c>
       <c r="C493">
@@ -6873,7 +6873,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C494">
@@ -6886,7 +6886,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>LINARES</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="C495">
@@ -6899,7 +6899,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>MONTEMORELOS</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C496">
@@ -6912,7 +6912,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C497">
@@ -6925,7 +6925,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C498">
@@ -6938,7 +6938,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="C499">
@@ -6951,7 +6951,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C500">
@@ -6964,12 +6964,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>ASUNCIÓN NOCHIXTLÁN</t>
+          <t>Asunción Nochixtlán</t>
         </is>
       </c>
       <c r="C501">
@@ -6982,7 +6982,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>ASUNCIÓN OCOTLÁN</t>
+          <t>Asunción Ocotlán</t>
         </is>
       </c>
       <c r="C502">
@@ -6995,7 +6995,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>CANDELARIA LOXICHA</t>
+          <t>Candelaria Loxicha</t>
         </is>
       </c>
       <c r="C503">
@@ -7008,7 +7008,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>CHALCATONGO DE HIDALGO</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C504">
@@ -7021,7 +7021,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>CUILÁPAM DE GUERRERO</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C505">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C506">
@@ -7047,7 +7047,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C507">
@@ -7060,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C508">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>HUAUTLA DE JIMÉNEZ</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C509">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>IXPANTEPEC NIEVES</t>
+          <t>Ixpantepec Nieves</t>
         </is>
       </c>
       <c r="C510">
@@ -7099,7 +7099,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>LA PE</t>
+          <t>La Pe</t>
         </is>
       </c>
       <c r="C511">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C512">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>MAGDALENA PEÑASCO</t>
+          <t>Magdalena Peñasco</t>
         </is>
       </c>
       <c r="C513">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C515">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C520">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
+          <t>San Antonino Monte Verde</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>SAN BLAS ATEMPA</t>
+          <t>San Blas Atempa</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>SAN CARLOS YAUTEPEC</t>
+          <t>San Carlos Yautepec</t>
         </is>
       </c>
       <c r="C523">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL AMATLÁN</t>
+          <t>San Cristóbal Amatlán</t>
         </is>
       </c>
       <c r="C524">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>SAN FELIPE USILA</t>
+          <t>San Felipe Usila</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TELIXTLAHUACA</t>
+          <t>San Francisco Telixtlahuaca</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO SOSOLA</t>
+          <t>San Jerónimo Sosola</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA COIXTLAHUACA</t>
+          <t>San Juan Bautista Coixtlahuaca</t>
         </is>
       </c>
       <c r="C529">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA CUICATLÁN</t>
+          <t>San Juan Bautista Cuicatlán</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TLACHICHILCO</t>
+          <t>San Juan Bautista Tlachichilco</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>SAN JUAN COLORADO</t>
+          <t>San Juan Colorado</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>SAN JUAN COTZOCÓN</t>
+          <t>San Juan Cotzocón</t>
         </is>
       </c>
       <c r="C534">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>SAN JUAN JUQUILA VIJANOS</t>
+          <t>San Juan Juquila Vijanos</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>SAN MARCOS ARTEAGA</t>
+          <t>San Marcos Arteaga</t>
         </is>
       </c>
       <c r="C537">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>SAN MATEO DEL MAR</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C538">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>SAN MATEO YUCUTINDOO</t>
+          <t>San Mateo Yucutindoo</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>SAN MIGUEL AMATITLÁN</t>
+          <t>San Miguel Amatitlán</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>SAN PEDRO QUIATONI</t>
+          <t>San Pedro Quiatoni</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>SAN PEDRO TAPANATEPEC</t>
+          <t>San Pedro Tapanatepec</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEPOSCOLULA</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TECOMAXTLAHUACA</t>
+          <t>San Sebastián Tecomaxtlahuaca</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>SANTA CRUZ MIXTEPEC</t>
+          <t>Santa Cruz Mixtepec</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>SANTA CRUZ TACAHUA</t>
+          <t>Santa Cruz Tacahua</t>
         </is>
       </c>
       <c r="C547">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ATZOMPA</t>
+          <t>Santa María Atzompa</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>SANTA MARÍA GUIENAGATI</t>
+          <t>Santa María Guienagati</t>
         </is>
       </c>
       <c r="C549">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUATULCO</t>
+          <t>Santa María Huatulco</t>
         </is>
       </c>
       <c r="C550">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C551">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>SANTA MARÍA OZOLOTEPEC</t>
+          <t>Santa María Ozolotepec</t>
         </is>
       </c>
       <c r="C552">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>SANTA MARÍA PEÑOLES</t>
+          <t>Santa María Peñoles</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>SANTIAGO CAMOTLÁN</t>
+          <t>Santiago Camotlán</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>SANTIAGO IXTAYUTLA</t>
+          <t>Santiago Ixtayutla</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>SANTIAGO TAMAZOLA</t>
+          <t>Santiago Tamazola</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>SANTOS REYES TEPEJILLO</t>
+          <t>Santos Reyes Tepejillo</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>SILACAYOÁPAM</t>
+          <t>Silacayoápam</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>TEOTITLÁN DE FLORES MAGÓN</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>TEZOATLÁN DE SEGURA Y LUNA</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>VILLA DE ETLA</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>VILLA SOLA DE VEGA</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C568">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>VILLA TALEA DE CASTRO</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,12 +7892,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C572">
@@ -7910,7 +7910,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C573">
@@ -7923,7 +7923,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C574">
@@ -7936,7 +7936,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>AMOZOC</t>
+          <t>Amozoc</t>
         </is>
       </c>
       <c r="C575">
@@ -7949,7 +7949,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>AQUIXTLA</t>
+          <t>Aquixtla</t>
         </is>
       </c>
       <c r="C576">
@@ -7962,7 +7962,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C577">
@@ -7975,7 +7975,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>Cañada Morelos</t>
         </is>
       </c>
       <c r="C578">
@@ -7988,7 +7988,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C579">
@@ -8001,7 +8001,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
+          <t>Chiautzingo</t>
         </is>
       </c>
       <c r="C580">
@@ -8014,7 +8014,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C581">
@@ -8027,7 +8027,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>CHILA</t>
+          <t>Chila</t>
         </is>
       </c>
       <c r="C582">
@@ -8040,7 +8040,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C583">
@@ -8053,7 +8053,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>COHUECAN</t>
+          <t>Cohuecan</t>
         </is>
       </c>
       <c r="C584">
@@ -8066,7 +8066,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>Coronango</t>
         </is>
       </c>
       <c r="C585">
@@ -8079,7 +8079,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>COYOMEAPAN</t>
+          <t>Coyomeapan</t>
         </is>
       </c>
       <c r="C586">
@@ -8092,7 +8092,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>ELOXOCHITLÁN</t>
+          <t>Eloxochitlán</t>
         </is>
       </c>
       <c r="C587">
@@ -8105,7 +8105,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>ESPERANZA</t>
+          <t>Esperanza</t>
         </is>
       </c>
       <c r="C588">
@@ -8118,7 +8118,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
+          <t>Hueytamalco</t>
         </is>
       </c>
       <c r="C589">
@@ -8131,7 +8131,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>IXTACAMAXTITLÁN</t>
+          <t>Ixtacamaxtitlán</t>
         </is>
       </c>
       <c r="C590">
@@ -8144,7 +8144,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>JALPAN</t>
+          <t>Jalpan</t>
         </is>
       </c>
       <c r="C591">
@@ -8157,7 +8157,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C592">
@@ -8170,7 +8170,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>MOLCAXAC</t>
+          <t>Molcaxac</t>
         </is>
       </c>
       <c r="C593">
@@ -8183,7 +8183,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>NICOLÁS BRAVO</t>
+          <t>Nicolás Bravo</t>
         </is>
       </c>
       <c r="C594">
@@ -8196,7 +8196,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>NOPALUCAN</t>
+          <t>Nopalucan</t>
         </is>
       </c>
       <c r="C595">
@@ -8209,7 +8209,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>OCOYUCAN</t>
+          <t>Ocoyucan</t>
         </is>
       </c>
       <c r="C596">
@@ -8222,7 +8222,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C597">
@@ -8235,7 +8235,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>PETLALCINGO</t>
+          <t>Petlalcingo</t>
         </is>
       </c>
       <c r="C598">
@@ -8248,7 +8248,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C599">
@@ -8261,7 +8261,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>SAN ANTONIO CAÑADA</t>
+          <t>San Antonio Cañada</t>
         </is>
       </c>
       <c r="C600">
@@ -8274,7 +8274,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C601">
@@ -8287,7 +8287,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C602">
@@ -8300,7 +8300,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TLACOTEPEC</t>
+          <t>San Sebastián Tlacotepec</t>
         </is>
       </c>
       <c r="C603">
@@ -8313,7 +8313,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>TECALI DE HERRERA</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C604">
@@ -8326,7 +8326,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C605">
@@ -8339,7 +8339,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C606">
@@ -8352,7 +8352,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C607">
@@ -8365,7 +8365,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>TEPANCO DE LÓPEZ</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C608">
@@ -8378,7 +8378,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C609">
@@ -8391,7 +8391,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C610">
@@ -8404,7 +8404,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>TEPEYAHUALCO</t>
+          <t>Tepeyahualco</t>
         </is>
       </c>
       <c r="C611">
@@ -8417,7 +8417,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C612">
@@ -8430,7 +8430,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>TLACUILOTEPEC</t>
+          <t>Tlacuilotepec</t>
         </is>
       </c>
       <c r="C613">
@@ -8443,7 +8443,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C614">
@@ -8456,7 +8456,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>TLAOLA</t>
+          <t>Tlaola</t>
         </is>
       </c>
       <c r="C615">
@@ -8469,7 +8469,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C616">
@@ -8482,7 +8482,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>TZICATLACOYAN</t>
+          <t>Tzicatlacoyan</t>
         </is>
       </c>
       <c r="C617">
@@ -8495,7 +8495,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C618">
@@ -8508,7 +8508,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C619">
@@ -8521,7 +8521,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>ZONGOZOTLA</t>
+          <t>Zongozotla</t>
         </is>
       </c>
       <c r="C620">
@@ -8534,7 +8534,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>ZOQUITLÁN</t>
+          <t>Zoquitlán</t>
         </is>
       </c>
       <c r="C621">
@@ -8547,7 +8547,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C622">
@@ -8560,12 +8560,12 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C623">
@@ -8578,7 +8578,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>ARROYO SECO</t>
+          <t>Arroyo Seco</t>
         </is>
       </c>
       <c r="C624">
@@ -8591,7 +8591,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C625">
@@ -8604,7 +8604,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>CORREGIDORA</t>
+          <t>Corregidora</t>
         </is>
       </c>
       <c r="C626">
@@ -8617,7 +8617,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C627">
@@ -8630,7 +8630,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>HUIMILPAN</t>
+          <t>Huimilpan</t>
         </is>
       </c>
       <c r="C628">
@@ -8643,7 +8643,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C629">
@@ -8656,7 +8656,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>PEÑAMILLER</t>
+          <t>Peñamiller</t>
         </is>
       </c>
       <c r="C630">
@@ -8669,7 +8669,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C631">
@@ -8682,7 +8682,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C632">
@@ -8695,7 +8695,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>SAN JOAQUÍN</t>
+          <t>San Joaquín</t>
         </is>
       </c>
       <c r="C633">
@@ -8708,7 +8708,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C634">
@@ -8721,7 +8721,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C635">
@@ -8734,12 +8734,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>COZUMEL</t>
+          <t>Cozumel</t>
         </is>
       </c>
       <c r="C636">
@@ -8752,7 +8752,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C637">
@@ -8765,7 +8765,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C638">
@@ -8778,12 +8778,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>ALAQUINES</t>
+          <t>Alaquines</t>
         </is>
       </c>
       <c r="C639">
@@ -8796,7 +8796,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>ARMADILLO DE LOS INFANTE</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C640">
@@ -8809,7 +8809,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>AXTLA DE TERRAZAS</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C641">
@@ -8822,7 +8822,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C642">
@@ -8835,7 +8835,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C643">
@@ -8848,7 +8848,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C644">
@@ -8861,7 +8861,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C645">
@@ -8874,7 +8874,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C646">
@@ -8887,7 +8887,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>MOCTEZUMA</t>
+          <t>Moctezuma</t>
         </is>
       </c>
       <c r="C647">
@@ -8900,7 +8900,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C648">
@@ -8913,7 +8913,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C649">
@@ -8926,7 +8926,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS TOLENTINO</t>
+          <t>San Nicolás Tolentino</t>
         </is>
       </c>
       <c r="C650">
@@ -8939,7 +8939,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C651">
@@ -8952,7 +8952,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="C652">
@@ -8965,7 +8965,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>SOLEDAD DE GRACIANO SÁNCHEZ</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C653">
@@ -8978,7 +8978,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C654">
@@ -8991,7 +8991,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>VILLA DE REYES</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C655">
@@ -9004,7 +9004,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C656">
@@ -9017,7 +9017,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C657">
@@ -9030,12 +9030,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C658">
@@ -9048,7 +9048,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>ANGOSTURA</t>
+          <t>Angostura</t>
         </is>
       </c>
       <c r="C659">
@@ -9061,7 +9061,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>BADIRAGUATO</t>
+          <t>Badiraguato</t>
         </is>
       </c>
       <c r="C660">
@@ -9074,7 +9074,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>CHOIX</t>
+          <t>Choix</t>
         </is>
       </c>
       <c r="C661">
@@ -9087,7 +9087,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>CONCORDIA</t>
+          <t>Concordia</t>
         </is>
       </c>
       <c r="C662">
@@ -9100,7 +9100,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>COSALÁ</t>
+          <t>Cosalá</t>
         </is>
       </c>
       <c r="C663">
@@ -9113,7 +9113,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C664">
@@ -9126,7 +9126,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
+          <t>El Fuerte</t>
         </is>
       </c>
       <c r="C665">
@@ -9139,7 +9139,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>ELOTA</t>
+          <t>Elota</t>
         </is>
       </c>
       <c r="C666">
@@ -9152,7 +9152,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C667">
@@ -9165,7 +9165,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C668">
@@ -9178,7 +9178,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>MOCORITO</t>
+          <t>Mocorito</t>
         </is>
       </c>
       <c r="C669">
@@ -9191,7 +9191,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>NAVOLATO</t>
+          <t>Navolato</t>
         </is>
       </c>
       <c r="C670">
@@ -9204,7 +9204,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C671">
@@ -9217,7 +9217,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C672">
@@ -9230,7 +9230,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>San Ignacio</t>
         </is>
       </c>
       <c r="C673">
@@ -9243,7 +9243,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C674">
@@ -9256,7 +9256,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C675">
@@ -9269,12 +9269,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>AGUA PRIETA</t>
+          <t>Agua Prieta</t>
         </is>
       </c>
       <c r="C676">
@@ -9287,7 +9287,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>ALAMOS</t>
+          <t>Alamos</t>
         </is>
       </c>
       <c r="C677">
@@ -9300,7 +9300,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>BÁCUM</t>
+          <t>Bácum</t>
         </is>
       </c>
       <c r="C678">
@@ -9313,7 +9313,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>CABORCA</t>
+          <t>Caborca</t>
         </is>
       </c>
       <c r="C679">
@@ -9326,7 +9326,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C680">
@@ -9339,7 +9339,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>EMPALME</t>
+          <t>Empalme</t>
         </is>
       </c>
       <c r="C681">
@@ -9352,7 +9352,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>ETCHOJOA</t>
+          <t>Etchojoa</t>
         </is>
       </c>
       <c r="C682">
@@ -9365,7 +9365,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>GENERAL PLUTARCO ELÍAS CALLES</t>
+          <t>General Plutarco Elías Calles</t>
         </is>
       </c>
       <c r="C683">
@@ -9378,7 +9378,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>GUAYMAS</t>
+          <t>Guaymas</t>
         </is>
       </c>
       <c r="C684">
@@ -9391,7 +9391,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C685">
@@ -9404,7 +9404,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>HUATABAMPO</t>
+          <t>Huatabampo</t>
         </is>
       </c>
       <c r="C686">
@@ -9417,7 +9417,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C687">
@@ -9430,7 +9430,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>NACOZARI DE GARCÍA</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C688">
@@ -9443,7 +9443,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>NAVOJOA</t>
+          <t>Navojoa</t>
         </is>
       </c>
       <c r="C689">
@@ -9456,7 +9456,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C690">
@@ -9469,7 +9469,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>SAHUARIPA</t>
+          <t>Sahuaripa</t>
         </is>
       </c>
       <c r="C691">
@@ -9482,7 +9482,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>SAN LUIS RÍO COLORADO</t>
+          <t>San Luis Río Colorado</t>
         </is>
       </c>
       <c r="C692">
@@ -9495,7 +9495,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C693">
@@ -9508,12 +9508,12 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C694">
@@ -9526,7 +9526,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C695">
@@ -9539,7 +9539,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C696">
@@ -9552,7 +9552,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C697">
@@ -9565,7 +9565,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C698">
@@ -9578,7 +9578,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>MACUSPANA</t>
+          <t>Macuspana</t>
         </is>
       </c>
       <c r="C699">
@@ -9591,7 +9591,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>TEAPA</t>
+          <t>Teapa</t>
         </is>
       </c>
       <c r="C700">
@@ -9604,7 +9604,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C701">
@@ -9617,7 +9617,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C702">
@@ -9630,12 +9630,12 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C703">
@@ -9648,7 +9648,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C704">
@@ -9661,7 +9661,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C705">
@@ -9674,7 +9674,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>MIGUEL ALEMÁN</t>
+          <t>Miguel Alemán</t>
         </is>
       </c>
       <c r="C706">
@@ -9687,7 +9687,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C707">
@@ -9700,7 +9700,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>VALLE HERMOSO</t>
+          <t>Valle Hermoso</t>
         </is>
       </c>
       <c r="C708">
@@ -9713,7 +9713,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C709">
@@ -9726,12 +9726,12 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C710">
@@ -9744,7 +9744,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>ATLTZAYANCA</t>
+          <t>Atltzayanca</t>
         </is>
       </c>
       <c r="C711">
@@ -9757,7 +9757,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C712">
@@ -9770,7 +9770,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C713">
@@ -9783,7 +9783,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>CUAXOMULCO</t>
+          <t>Cuaxomulco</t>
         </is>
       </c>
       <c r="C714">
@@ -9796,7 +9796,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C715">
@@ -9809,7 +9809,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>HUEYOTLIPAN</t>
+          <t>Hueyotlipan</t>
         </is>
       </c>
       <c r="C716">
@@ -9822,7 +9822,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>IXTACUIXTLA DE MARIANO MATAMOROS</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C717">
@@ -9835,7 +9835,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>MUÑOZ DE DOMINGO ARENAS</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C718">
@@ -9848,7 +9848,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C719">
@@ -9861,7 +9861,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>PANOTLA</t>
+          <t>Panotla</t>
         </is>
       </c>
       <c r="C720">
@@ -9874,7 +9874,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C721">
@@ -9887,7 +9887,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C722">
@@ -9900,7 +9900,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>TOTOLAC</t>
+          <t>Totolac</t>
         </is>
       </c>
       <c r="C723">
@@ -9913,7 +9913,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>TZOMPANTEPEC</t>
+          <t>Tzompantepec</t>
         </is>
       </c>
       <c r="C724">
@@ -9926,7 +9926,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>XALTOCAN</t>
+          <t>Xaltocan</t>
         </is>
       </c>
       <c r="C725">
@@ -9939,7 +9939,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>YAUHQUEMEHCAN</t>
+          <t>Yauhquemehcan</t>
         </is>
       </c>
       <c r="C726">
@@ -9952,7 +9952,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C727">
@@ -9965,12 +9965,12 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C728">
@@ -9983,7 +9983,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C729">
@@ -9996,7 +9996,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>AMATLÁN DE LOS REYES</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C730">
@@ -10009,7 +10009,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>ANGEL R. CABADA</t>
+          <t>Angel R. Cabada</t>
         </is>
       </c>
       <c r="C731">
@@ -10022,7 +10022,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C732">
@@ -10035,7 +10035,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>ATZACAN</t>
+          <t>Atzacan</t>
         </is>
       </c>
       <c r="C733">
@@ -10048,7 +10048,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C734">
@@ -10061,7 +10061,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>CAMERINO Z. MENDOZA</t>
+          <t>Camerino Z. Mendoza</t>
         </is>
       </c>
       <c r="C735">
@@ -10074,7 +10074,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>CAZONES DE HERRERA</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C736">
@@ -10087,7 +10087,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>Cerro Azul</t>
         </is>
       </c>
       <c r="C737">
@@ -10100,7 +10100,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>CHICONTEPEC</t>
+          <t>Chicontepec</t>
         </is>
       </c>
       <c r="C738">
@@ -10113,7 +10113,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C739">
@@ -10126,7 +10126,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C740">
@@ -10139,7 +10139,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>CUICHAPA</t>
+          <t>Cuichapa</t>
         </is>
       </c>
       <c r="C741">
@@ -10152,7 +10152,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C742">
@@ -10165,7 +10165,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>FORTÍN</t>
+          <t>Fortín</t>
         </is>
       </c>
       <c r="C743">
@@ -10178,7 +10178,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C744">
@@ -10191,7 +10191,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C745">
@@ -10204,7 +10204,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C746">
@@ -10217,7 +10217,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DEL SURESTE</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C747">
@@ -10230,7 +10230,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>IXTACZOQUITLÁN</t>
+          <t>Ixtaczoquitlán</t>
         </is>
       </c>
       <c r="C748">
@@ -10243,7 +10243,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>JAMAPA</t>
+          <t>Jamapa</t>
         </is>
       </c>
       <c r="C749">
@@ -10256,7 +10256,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C750">
@@ -10269,7 +10269,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C751">
@@ -10282,7 +10282,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>La Perla</t>
         </is>
       </c>
       <c r="C752">
@@ -10295,7 +10295,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C753">
@@ -10308,7 +10308,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>MARIANO ESCOBEDO</t>
+          <t>Mariano Escobedo</t>
         </is>
       </c>
       <c r="C754">
@@ -10321,7 +10321,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C755">
@@ -10334,7 +10334,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C756">
@@ -10347,7 +10347,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C757">
@@ -10360,7 +10360,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C758">
@@ -10373,7 +10373,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C759">
@@ -10386,7 +10386,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>PLATÓN SÁNCHEZ</t>
+          <t>Platón Sánchez</t>
         </is>
       </c>
       <c r="C760">
@@ -10399,7 +10399,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C761">
@@ -10412,7 +10412,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C762">
@@ -10425,7 +10425,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>PUEBLO VIEJO</t>
+          <t>Pueblo Viejo</t>
         </is>
       </c>
       <c r="C763">
@@ -10438,7 +10438,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>PUENTE NACIONAL</t>
+          <t>Puente Nacional</t>
         </is>
       </c>
       <c r="C764">
@@ -10451,7 +10451,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>RAFAEL DELGADO</t>
+          <t>Rafael Delgado</t>
         </is>
       </c>
       <c r="C765">
@@ -10464,7 +10464,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>RÍO BLANCO</t>
+          <t>Río Blanco</t>
         </is>
       </c>
       <c r="C766">
@@ -10477,7 +10477,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C767">
@@ -10490,7 +10490,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C768">
@@ -10503,7 +10503,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>SAYULA DE ALEMÁN</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C769">
@@ -10516,7 +10516,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>SOLEDAD ATZOMPA</t>
+          <t>Soledad Atzompa</t>
         </is>
       </c>
       <c r="C770">
@@ -10529,7 +10529,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>TANTIMA</t>
+          <t>Tantima</t>
         </is>
       </c>
       <c r="C771">
@@ -10542,7 +10542,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C772">
@@ -10555,7 +10555,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>TEHUIPANGO</t>
+          <t>Tehuipango</t>
         </is>
       </c>
       <c r="C773">
@@ -10568,7 +10568,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>TEPETZINTLA</t>
+          <t>Tepetzintla</t>
         </is>
       </c>
       <c r="C774">
@@ -10581,7 +10581,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C775">
@@ -10594,7 +10594,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>TRES VALLES</t>
+          <t>Tres Valles</t>
         </is>
       </c>
       <c r="C776">
@@ -10607,7 +10607,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C777">
@@ -10620,7 +10620,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C778">
@@ -10633,7 +10633,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C779">
@@ -10646,7 +10646,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C780">
@@ -10659,7 +10659,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>ZONTECOMATLÁN DE LÓPEZ Y FUENTES</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C781">
@@ -10672,7 +10672,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C782">
@@ -10685,12 +10685,12 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>MAMA</t>
+          <t>Mama</t>
         </is>
       </c>
       <c r="C783">
@@ -10703,7 +10703,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>MAXCANÚ</t>
+          <t>Maxcanú</t>
         </is>
       </c>
       <c r="C784">
@@ -10716,7 +10716,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C785">
@@ -10729,7 +10729,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C786">
@@ -10742,12 +10742,12 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>APOZOL</t>
+          <t>Apozol</t>
         </is>
       </c>
       <c r="C787">
@@ -10760,7 +10760,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>ATOLINGA</t>
+          <t>Atolinga</t>
         </is>
       </c>
       <c r="C788">
@@ -10773,7 +10773,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>CALERA</t>
+          <t>Calera</t>
         </is>
       </c>
       <c r="C789">
@@ -10786,7 +10786,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
+          <t>Chalchihuites</t>
         </is>
       </c>
       <c r="C790">
@@ -10799,7 +10799,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DEL ORO</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C791">
@@ -10812,7 +10812,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C792">
@@ -10825,7 +10825,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>EL PLATEADO DE JOAQUÍN AMARO</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C793">
@@ -10838,7 +10838,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C794">
@@ -10851,7 +10851,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>GENERAL ENRIQUE ESTRADA</t>
+          <t>General Enrique Estrada</t>
         </is>
       </c>
       <c r="C795">
@@ -10864,7 +10864,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C796">
@@ -10877,7 +10877,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C797">
@@ -10890,7 +10890,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C798">
@@ -10903,7 +10903,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>HUANUSCO</t>
+          <t>Huanusco</t>
         </is>
       </c>
       <c r="C799">
@@ -10916,7 +10916,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C800">
@@ -10929,7 +10929,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>JEREZ</t>
+          <t>Jerez</t>
         </is>
       </c>
       <c r="C801">
@@ -10942,7 +10942,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>JUCHIPILA</t>
+          <t>Juchipila</t>
         </is>
       </c>
       <c r="C802">
@@ -10955,7 +10955,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>LUIS MOYA</t>
+          <t>Luis Moya</t>
         </is>
       </c>
       <c r="C803">
@@ -10968,7 +10968,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>MAZAPIL</t>
+          <t>Mazapil</t>
         </is>
       </c>
       <c r="C804">
@@ -10981,7 +10981,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>MIGUEL AUZA</t>
+          <t>Miguel Auza</t>
         </is>
       </c>
       <c r="C805">
@@ -10994,7 +10994,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C806">
@@ -11007,7 +11007,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>MOYAHUA DE ESTRADA</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C807">
@@ -11020,7 +11020,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>NOCHISTLÁN DE MEJÍA</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C808">
@@ -11033,7 +11033,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>NORIA DE ÁNGELES</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C809">
@@ -11046,7 +11046,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C810">
@@ -11059,7 +11059,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C811">
@@ -11072,7 +11072,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C812">
@@ -11085,7 +11085,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C813">
@@ -11098,7 +11098,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DE LA PAZ</t>
+          <t>Santa María De La Paz</t>
         </is>
       </c>
       <c r="C814">
@@ -11111,7 +11111,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C815">
@@ -11124,7 +11124,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C816">
@@ -11137,7 +11137,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>TEPECHITLÁN</t>
+          <t>Tepechitlán</t>
         </is>
       </c>
       <c r="C817">
@@ -11150,7 +11150,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>TEPETONGO</t>
+          <t>Tepetongo</t>
         </is>
       </c>
       <c r="C818">
@@ -11163,7 +11163,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C819">
@@ -11176,7 +11176,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C820">
@@ -11189,7 +11189,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C821">
@@ -11202,7 +11202,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>VETAGRANDE</t>
+          <t>Vetagrande</t>
         </is>
       </c>
       <c r="C822">
@@ -11215,7 +11215,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C823">
@@ -11228,7 +11228,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>VILLA GARCÍA</t>
+          <t>Villa García</t>
         </is>
       </c>
       <c r="C824">
@@ -11241,7 +11241,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C825">
@@ -11254,7 +11254,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C826">
@@ -11267,7 +11267,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C827">
@@ -11280,7 +11280,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C828">
@@ -11293,7 +11293,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C829">
@@ -11301,41 +11301,6 @@
       </c>
       <c r="D829">
         <v>1</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/IDAHO_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/IDAHO_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>El Llano</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tecate</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Mulegé</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Acapetahua</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Amatenango Del Valle</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Chalchihuitán</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Ixtapa</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Jitotol</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Metapa</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Montecristo De Guerrero</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Sitalá</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tila</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tzimol</t>
@@ -1198,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1211,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1224,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Yajalón</t>
@@ -1237,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1268,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -1281,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -1294,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Chínipas</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -1424,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1437,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>La Cruz</t>
@@ -1450,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1463,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -1476,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1489,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Moris</t>
@@ -1502,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1515,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -1528,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1541,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Riva Palacio</t>
@@ -1554,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Rosales</t>
@@ -1567,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1580,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Francisco Del Oro</t>
@@ -1593,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Santa Bárbara</t>
@@ -1606,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1619,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -1632,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1663,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1676,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1689,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1702,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1715,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1728,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1741,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1754,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1767,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1780,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1793,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1806,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1819,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1832,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1863,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1876,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1889,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1902,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1915,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1946,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Colima</t>
@@ -1959,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -1972,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Coquimatlán</t>
@@ -1985,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Ixtlahuacán</t>
@@ -1998,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -2011,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2024,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -2037,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Villa De Álvarez</t>
@@ -2050,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -2146,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -2159,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -2185,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -2198,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -2211,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -2224,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -2237,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -2250,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -2263,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -2276,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -2289,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -2302,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Tamazula</t>
@@ -2315,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -2328,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -2341,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2354,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Coacalco De Berriozábal</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -2606,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2619,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -2632,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2645,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2658,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -2671,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -2684,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2697,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>San José Del Rincón</t>
@@ -2710,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>San Simón De Guerrero</t>
@@ -2723,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Soyaniquilpan De Juárez</t>
@@ -2736,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -2749,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2762,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -2775,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -2788,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -2801,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Tequixquiac</t>
@@ -2814,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -2827,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2840,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Tezoyuca</t>
@@ -2853,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Tlalmanalco</t>
@@ -2866,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2879,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2892,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2905,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -2918,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -2931,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2944,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2957,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2970,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -2983,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -2996,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -3066,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -3079,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -3092,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -3105,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -3118,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -3131,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -3144,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -3157,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -3170,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>León</t>
@@ -3183,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -3196,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -3209,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -3222,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -3235,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -3248,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -3261,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -3274,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -3287,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -3300,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -3313,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -3326,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -3339,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -3352,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -3365,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -3378,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -3391,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -3404,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -3417,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -3430,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -3443,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3474,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -3487,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -3500,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3513,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -3526,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -3539,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -3552,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3565,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -3578,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3591,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -3604,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -3617,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -3630,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3643,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -3656,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -3669,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3682,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3695,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -3708,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtémoc</t>
@@ -3721,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3734,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -3747,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -3760,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -3773,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Mochitlán</t>
@@ -3786,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -3799,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3812,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -3825,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3838,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -3851,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -3864,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3877,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -3890,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3903,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -3916,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -3929,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3942,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3955,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -3968,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -3981,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3994,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -4007,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -4020,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -4033,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4064,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -4077,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -4090,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -4103,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Epazoyucan</t>
@@ -4116,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -4129,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -4142,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -4155,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Mineral De La Reforma</t>
@@ -4168,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -4181,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Nopala De Villagrán</t>
@@ -4194,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -4207,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>San Agustín Metzquititlán</t>
@@ -4220,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -4233,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -4246,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -4259,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -4272,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Tepeji Del Río De Ocampo</t>
@@ -4285,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -4298,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -4311,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -4324,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -4337,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -4350,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4381,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Amatitán</t>
@@ -4394,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -4407,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -4420,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -4433,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -4446,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -4459,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -4472,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -4485,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -4498,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -4511,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Cañadas De Obregón</t>
@@ -4524,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Chapala</t>
@@ -4537,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -4550,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Concepción De Buenos Aires</t>
@@ -4563,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4576,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -4589,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -4602,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Guachinango</t>
@@ -4615,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -4628,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -4641,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -4654,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Ixtlahuacán De Los Membrillos</t>
@@ -4667,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -4680,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -4693,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -4706,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -4719,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -4732,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -4745,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -4758,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -4771,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -4784,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -4797,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -4810,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -4823,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -4836,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -4849,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>San Juanito De Escobedo</t>
@@ -4862,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>San Martín De Bolaños</t>
@@ -4875,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -4888,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4901,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>San Sebastián Del Oeste</t>
@@ -4914,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -4927,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -4940,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -4953,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -4966,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Tapalpa</t>
@@ -4979,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -4992,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Teocuitatlán De Corona</t>
@@ -5005,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -5018,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -5031,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -5044,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -5057,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Valle De Juárez</t>
@@ -5070,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -5083,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -5096,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -5109,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -5122,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -5135,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -5148,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -5161,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Zapotitlán De Vadillo</t>
@@ -5174,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -5187,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Zapotlán Del Rey</t>
@@ -5200,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -5213,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5244,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Aguililla</t>
@@ -5257,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -5270,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -5283,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -5296,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -5309,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -5322,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -5335,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Charapan</t>
@@ -5348,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -5361,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -5374,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Chinicuila</t>
@@ -5387,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Chucándiro</t>
@@ -5400,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Churumuco</t>
@@ -5413,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -5426,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -5439,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -5452,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -5465,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Copándaro</t>
@@ -5478,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -5491,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -5504,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -5517,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -5530,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Huandacareo</t>
@@ -5543,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Huaniqueo</t>
@@ -5556,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -5569,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -5582,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -5595,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -5608,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -5621,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -5634,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -5647,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -5660,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -5673,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -5686,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -5699,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -5712,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -5725,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -5738,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -5751,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -5764,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -5777,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -5790,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -5803,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -5816,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Nuevo Parangaricutiro</t>
@@ -5829,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -5842,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Numarán</t>
@@ -5855,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -5868,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Panindícuaro</t>
@@ -5881,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -5894,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Penjamillo</t>
@@ -5907,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -5920,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -5933,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -5946,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -5959,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -5972,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -5985,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -5998,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -6011,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Susupuato</t>
@@ -6024,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -6037,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -6050,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -6063,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -6076,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -6089,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -6102,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -6115,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Tinguindín</t>
@@ -6128,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Tingüindín</t>
@@ -6141,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -6154,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -6167,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -6180,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -6193,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -6206,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -6219,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Tzintzuntzan</t>
@@ -6232,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -6245,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -6258,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -6271,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Vista Hermosa</t>
@@ -6284,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -6297,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -6310,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -6323,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -6336,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Zináparo</t>
@@ -6349,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -6362,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -6375,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -6388,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6419,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -6432,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -6445,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -6458,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -6471,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -6484,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -6497,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -6510,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -6523,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -6536,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Totolapan</t>
@@ -6549,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -6562,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -6575,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -6588,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6619,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -6632,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Amatlán De Cañas</t>
@@ -6645,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Bahía De Banderas</t>
@@ -6658,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -6671,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Del Nayar</t>
@@ -6684,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -6697,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -6710,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -6723,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -6736,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -6749,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>San Pedro Lagunillas</t>
@@ -6762,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -6775,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -6788,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -6801,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -6814,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -6827,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Xalisco</t>
@@ -6840,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6871,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -6884,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -6897,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Montemorelos</t>
@@ -6910,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -6923,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -6936,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Santiago</t>
@@ -6949,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6980,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Asunción Ocotlán</t>
@@ -6993,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -7006,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -7019,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Cuilápam De Guerrero</t>
@@ -7032,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -7045,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -7058,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -7071,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Huautla De Jiménez</t>
@@ -7084,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Ixpantepec Nieves</t>
@@ -7097,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>La Pe</t>
@@ -7110,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -7123,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Magdalena Peñasco</t>
@@ -7136,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -7149,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -7162,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -7175,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -7188,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -7201,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -7214,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -7227,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -7240,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>San Blas Atempa</t>
@@ -7253,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -7266,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>San Cristóbal Amatlán</t>
@@ -7279,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -7292,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>San Francisco Telixtlahuaca</t>
@@ -7305,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>San Jerónimo Sosola</t>
@@ -7318,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>San José Chiltepec</t>
@@ -7331,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>San Juan Bautista Coixtlahuaca</t>
@@ -7344,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>San Juan Bautista Cuicatlán</t>
@@ -7357,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>San Juan Bautista Tlachichilco</t>
@@ -7370,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -7383,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>San Juan Colorado</t>
@@ -7396,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -7409,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>San Juan Juquila Vijanos</t>
@@ -7422,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -7435,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>San Marcos Arteaga</t>
@@ -7448,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>San Mateo Del Mar</t>
@@ -7461,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>San Mateo Yucutindoo</t>
@@ -7474,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -7487,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -7500,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>San Pedro Quiatoni</t>
@@ -7513,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>San Pedro Tapanatepec</t>
@@ -7526,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -7539,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>San Sebastián Tecomaxtlahuaca</t>
@@ -7552,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Santa Cruz Mixtepec</t>
@@ -7565,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Santa Cruz Tacahua</t>
@@ -7578,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Santa María Atzompa</t>
@@ -7591,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Santa María Guienagati</t>
@@ -7604,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -7617,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -7630,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Santa María Ozolotepec</t>
@@ -7643,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Santa María Peñoles</t>
@@ -7656,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Santiago Camotlán</t>
@@ -7669,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Santiago Ixtayutla</t>
@@ -7682,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -7695,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -7708,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -7721,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -7734,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -7747,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Santos Reyes Tepejillo</t>
@@ -7760,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -7773,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -7786,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Tezoatlán De Segura Y Luna</t>
@@ -7799,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -7812,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Villa De Tututepec</t>
@@ -7825,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -7838,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -7851,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Villa Talea De Castro</t>
@@ -7864,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -7877,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7908,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -7921,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -7934,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -7947,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -7960,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Atempan</t>
@@ -7973,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -7986,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -7999,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -8012,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -8025,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Chila</t>
@@ -8038,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -8051,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Cohuecan</t>
@@ -8064,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -8077,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Coyomeapan</t>
@@ -8090,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -8103,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -8116,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -8129,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -8142,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -8155,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -8168,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Molcaxac</t>
@@ -8181,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Nicolás Bravo</t>
@@ -8194,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Nopalucan</t>
@@ -8207,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -8220,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -8233,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -8246,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -8259,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>San Antonio Cañada</t>
@@ -8272,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -8285,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -8298,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>San Sebastián Tlacotepec</t>
@@ -8311,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -8324,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -8337,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -8350,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -8363,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -8376,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -8389,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -8402,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Tepeyahualco</t>
@@ -8415,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -8428,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -8441,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -8454,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -8467,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -8480,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Tzicatlacoyan</t>
@@ -8493,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -8506,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -8519,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Zongozotla</t>
@@ -8532,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Zoquitlán</t>
@@ -8545,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8576,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -8589,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -8602,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Corregidora</t>
@@ -8615,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -8628,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -8641,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -8654,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Peñamiller</t>
@@ -8667,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -8680,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -8693,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>San Joaquín</t>
@@ -8706,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -8719,6 +11774,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8750,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -8763,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8794,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Armadillo De Los Infante</t>
@@ -8807,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -8820,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -8833,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -8846,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -8859,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -8872,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -8885,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -8898,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -8911,6 +12026,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -8924,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -8937,6 +12062,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -8950,6 +12080,11 @@
       </c>
     </row>
     <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B652" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -8963,6 +12098,11 @@
       </c>
     </row>
     <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B653" t="inlineStr">
         <is>
           <t>Soledad De Graciano Sánchez</t>
@@ -8976,6 +12116,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -8989,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -9002,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -9015,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9046,6 +12206,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>Angostura</t>
@@ -9059,6 +12224,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -9072,6 +12242,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -9085,6 +12260,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Concordia</t>
@@ -9098,6 +12278,11 @@
       </c>
     </row>
     <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B663" t="inlineStr">
         <is>
           <t>Cosalá</t>
@@ -9111,6 +12296,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -9124,6 +12314,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -9137,6 +12332,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -9150,6 +12350,11 @@
       </c>
     </row>
     <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B667" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -9163,6 +12368,11 @@
       </c>
     </row>
     <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B668" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -9176,6 +12386,11 @@
       </c>
     </row>
     <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B669" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -9189,6 +12404,11 @@
       </c>
     </row>
     <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -9202,6 +12422,11 @@
       </c>
     </row>
     <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B671" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -9215,6 +12440,11 @@
       </c>
     </row>
     <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B672" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -9228,6 +12458,11 @@
       </c>
     </row>
     <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr">
         <is>
           <t>San Ignacio</t>
@@ -9241,6 +12476,11 @@
       </c>
     </row>
     <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -9254,6 +12494,11 @@
       </c>
     </row>
     <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9285,6 +12530,11 @@
       </c>
     </row>
     <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
           <t>Alamos</t>
@@ -9298,6 +12548,11 @@
       </c>
     </row>
     <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B678" t="inlineStr">
         <is>
           <t>Bácum</t>
@@ -9311,6 +12566,11 @@
       </c>
     </row>
     <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr">
         <is>
           <t>Caborca</t>
@@ -9324,6 +12584,11 @@
       </c>
     </row>
     <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B680" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -9337,6 +12602,11 @@
       </c>
     </row>
     <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -9350,6 +12620,11 @@
       </c>
     </row>
     <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr">
         <is>
           <t>Etchojoa</t>
@@ -9363,6 +12638,11 @@
       </c>
     </row>
     <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
           <t>General Plutarco Elías Calles</t>
@@ -9376,6 +12656,11 @@
       </c>
     </row>
     <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -9389,6 +12674,11 @@
       </c>
     </row>
     <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -9402,6 +12692,11 @@
       </c>
     </row>
     <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B686" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -9415,6 +12710,11 @@
       </c>
     </row>
     <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B687" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -9428,6 +12728,11 @@
       </c>
     </row>
     <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B688" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -9441,6 +12746,11 @@
       </c>
     </row>
     <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B689" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -9454,6 +12764,11 @@
       </c>
     </row>
     <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B690" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -9467,6 +12782,11 @@
       </c>
     </row>
     <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B691" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -9480,6 +12800,11 @@
       </c>
     </row>
     <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B692" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -9493,6 +12818,11 @@
       </c>
     </row>
     <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B693" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9524,6 +12854,11 @@
       </c>
     </row>
     <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B695" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -9537,6 +12872,11 @@
       </c>
     </row>
     <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B696" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -9550,6 +12890,11 @@
       </c>
     </row>
     <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -9563,6 +12908,11 @@
       </c>
     </row>
     <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B698" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -9576,6 +12926,11 @@
       </c>
     </row>
     <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B699" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -9589,6 +12944,11 @@
       </c>
     </row>
     <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B700" t="inlineStr">
         <is>
           <t>Teapa</t>
@@ -9602,6 +12962,11 @@
       </c>
     </row>
     <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B701" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -9615,6 +12980,11 @@
       </c>
     </row>
     <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B702" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9646,6 +13016,11 @@
       </c>
     </row>
     <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -9659,6 +13034,11 @@
       </c>
     </row>
     <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B705" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -9672,6 +13052,11 @@
       </c>
     </row>
     <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr">
         <is>
           <t>Miguel Alemán</t>
@@ -9685,6 +13070,11 @@
       </c>
     </row>
     <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B707" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -9698,6 +13088,11 @@
       </c>
     </row>
     <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B708" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -9711,6 +13106,11 @@
       </c>
     </row>
     <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B709" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9742,6 +13142,11 @@
       </c>
     </row>
     <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B711" t="inlineStr">
         <is>
           <t>Atltzayanca</t>
@@ -9755,6 +13160,11 @@
       </c>
     </row>
     <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -9768,6 +13178,11 @@
       </c>
     </row>
     <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -9781,6 +13196,11 @@
       </c>
     </row>
     <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B714" t="inlineStr">
         <is>
           <t>Cuaxomulco</t>
@@ -9794,6 +13214,11 @@
       </c>
     </row>
     <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B715" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -9807,6 +13232,11 @@
       </c>
     </row>
     <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B716" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -9820,6 +13250,11 @@
       </c>
     </row>
     <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B717" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -9833,6 +13268,11 @@
       </c>
     </row>
     <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B718" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -9846,6 +13286,11 @@
       </c>
     </row>
     <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B719" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -9859,6 +13304,11 @@
       </c>
     </row>
     <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B720" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -9872,6 +13322,11 @@
       </c>
     </row>
     <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B721" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -9885,6 +13340,11 @@
       </c>
     </row>
     <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B722" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -9898,6 +13358,11 @@
       </c>
     </row>
     <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B723" t="inlineStr">
         <is>
           <t>Totolac</t>
@@ -9911,6 +13376,11 @@
       </c>
     </row>
     <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B724" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -9924,6 +13394,11 @@
       </c>
     </row>
     <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B725" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -9937,6 +13412,11 @@
       </c>
     </row>
     <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B726" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -9950,6 +13430,11 @@
       </c>
     </row>
     <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B727" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9981,6 +13466,11 @@
       </c>
     </row>
     <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B729" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -9994,6 +13484,11 @@
       </c>
     </row>
     <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B730" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -10007,6 +13502,11 @@
       </c>
     </row>
     <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B731" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -10020,6 +13520,11 @@
       </c>
     </row>
     <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B732" t="inlineStr">
         <is>
           <t>Atlahuilco</t>
@@ -10033,6 +13538,11 @@
       </c>
     </row>
     <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B733" t="inlineStr">
         <is>
           <t>Atzacan</t>
@@ -10046,6 +13556,11 @@
       </c>
     </row>
     <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B734" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -10059,6 +13574,11 @@
       </c>
     </row>
     <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B735" t="inlineStr">
         <is>
           <t>Camerino Z. Mendoza</t>
@@ -10072,6 +13592,11 @@
       </c>
     </row>
     <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B736" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -10085,6 +13610,11 @@
       </c>
     </row>
     <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B737" t="inlineStr">
         <is>
           <t>Cerro Azul</t>
@@ -10098,6 +13628,11 @@
       </c>
     </row>
     <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B738" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -10111,6 +13646,11 @@
       </c>
     </row>
     <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B739" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -10124,6 +13664,11 @@
       </c>
     </row>
     <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B740" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -10137,6 +13682,11 @@
       </c>
     </row>
     <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B741" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -10150,6 +13700,11 @@
       </c>
     </row>
     <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B742" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -10163,6 +13718,11 @@
       </c>
     </row>
     <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B743" t="inlineStr">
         <is>
           <t>Fortín</t>
@@ -10176,6 +13736,11 @@
       </c>
     </row>
     <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B744" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -10189,6 +13754,11 @@
       </c>
     </row>
     <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B745" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -10202,6 +13772,11 @@
       </c>
     </row>
     <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B746" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -10215,6 +13790,11 @@
       </c>
     </row>
     <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B747" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Sureste</t>
@@ -10228,6 +13808,11 @@
       </c>
     </row>
     <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B748" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -10241,6 +13826,11 @@
       </c>
     </row>
     <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B749" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -10254,6 +13844,11 @@
       </c>
     </row>
     <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B750" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -10267,6 +13862,11 @@
       </c>
     </row>
     <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B751" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -10280,6 +13880,11 @@
       </c>
     </row>
     <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B752" t="inlineStr">
         <is>
           <t>La Perla</t>
@@ -10293,6 +13898,11 @@
       </c>
     </row>
     <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B753" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -10306,6 +13916,11 @@
       </c>
     </row>
     <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B754" t="inlineStr">
         <is>
           <t>Mariano Escobedo</t>
@@ -10319,6 +13934,11 @@
       </c>
     </row>
     <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B755" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -10332,6 +13952,11 @@
       </c>
     </row>
     <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B756" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -10345,6 +13970,11 @@
       </c>
     </row>
     <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B757" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -10358,6 +13988,11 @@
       </c>
     </row>
     <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B758" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -10371,6 +14006,11 @@
       </c>
     </row>
     <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B759" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -10384,6 +14024,11 @@
       </c>
     </row>
     <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B760" t="inlineStr">
         <is>
           <t>Platón Sánchez</t>
@@ -10397,6 +14042,11 @@
       </c>
     </row>
     <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B761" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -10410,6 +14060,11 @@
       </c>
     </row>
     <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B762" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -10423,6 +14078,11 @@
       </c>
     </row>
     <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B763" t="inlineStr">
         <is>
           <t>Pueblo Viejo</t>
@@ -10436,6 +14096,11 @@
       </c>
     </row>
     <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B764" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -10449,6 +14114,11 @@
       </c>
     </row>
     <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B765" t="inlineStr">
         <is>
           <t>Rafael Delgado</t>
@@ -10462,6 +14132,11 @@
       </c>
     </row>
     <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B766" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -10475,6 +14150,11 @@
       </c>
     </row>
     <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B767" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -10488,6 +14168,11 @@
       </c>
     </row>
     <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B768" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -10501,6 +14186,11 @@
       </c>
     </row>
     <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B769" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -10514,6 +14204,11 @@
       </c>
     </row>
     <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B770" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -10527,6 +14222,11 @@
       </c>
     </row>
     <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B771" t="inlineStr">
         <is>
           <t>Tantima</t>
@@ -10540,6 +14240,11 @@
       </c>
     </row>
     <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B772" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -10553,6 +14258,11 @@
       </c>
     </row>
     <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B773" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -10566,6 +14276,11 @@
       </c>
     </row>
     <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B774" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -10579,6 +14294,11 @@
       </c>
     </row>
     <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B775" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -10592,6 +14312,11 @@
       </c>
     </row>
     <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B776" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -10605,6 +14330,11 @@
       </c>
     </row>
     <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B777" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -10618,6 +14348,11 @@
       </c>
     </row>
     <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B778" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -10631,6 +14366,11 @@
       </c>
     </row>
     <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B779" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -10644,6 +14384,11 @@
       </c>
     </row>
     <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B780" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -10657,6 +14402,11 @@
       </c>
     </row>
     <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B781" t="inlineStr">
         <is>
           <t>Zontecomatlán De López Y Fuentes</t>
@@ -10670,6 +14420,11 @@
       </c>
     </row>
     <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B782" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10701,6 +14456,11 @@
       </c>
     </row>
     <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B784" t="inlineStr">
         <is>
           <t>Maxcanú</t>
@@ -10714,6 +14474,11 @@
       </c>
     </row>
     <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B785" t="inlineStr">
         <is>
           <t>Mérida</t>
@@ -10727,6 +14492,11 @@
       </c>
     </row>
     <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B786" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10758,6 +14528,11 @@
       </c>
     </row>
     <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B788" t="inlineStr">
         <is>
           <t>Atolinga</t>
@@ -10771,6 +14546,11 @@
       </c>
     </row>
     <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B789" t="inlineStr">
         <is>
           <t>Calera</t>
@@ -10784,6 +14564,11 @@
       </c>
     </row>
     <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B790" t="inlineStr">
         <is>
           <t>Chalchihuites</t>
@@ -10797,6 +14582,11 @@
       </c>
     </row>
     <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B791" t="inlineStr">
         <is>
           <t>Concepción Del Oro</t>
@@ -10810,6 +14600,11 @@
       </c>
     </row>
     <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B792" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -10823,6 +14618,11 @@
       </c>
     </row>
     <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B793" t="inlineStr">
         <is>
           <t>El Plateado De Joaquín Amaro</t>
@@ -10836,6 +14636,11 @@
       </c>
     </row>
     <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B794" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -10849,6 +14654,11 @@
       </c>
     </row>
     <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B795" t="inlineStr">
         <is>
           <t>General Enrique Estrada</t>
@@ -10862,6 +14672,11 @@
       </c>
     </row>
     <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B796" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -10875,6 +14690,11 @@
       </c>
     </row>
     <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B797" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -10888,6 +14708,11 @@
       </c>
     </row>
     <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B798" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -10901,6 +14726,11 @@
       </c>
     </row>
     <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B799" t="inlineStr">
         <is>
           <t>Huanusco</t>
@@ -10914,6 +14744,11 @@
       </c>
     </row>
     <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B800" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -10927,6 +14762,11 @@
       </c>
     </row>
     <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B801" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -10940,6 +14780,11 @@
       </c>
     </row>
     <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B802" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -10953,6 +14798,11 @@
       </c>
     </row>
     <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B803" t="inlineStr">
         <is>
           <t>Luis Moya</t>
@@ -10966,6 +14816,11 @@
       </c>
     </row>
     <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B804" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -10979,6 +14834,11 @@
       </c>
     </row>
     <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B805" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -10992,6 +14852,11 @@
       </c>
     </row>
     <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B806" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -11005,6 +14870,11 @@
       </c>
     </row>
     <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B807" t="inlineStr">
         <is>
           <t>Moyahua De Estrada</t>
@@ -11018,6 +14888,11 @@
       </c>
     </row>
     <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B808" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -11031,6 +14906,11 @@
       </c>
     </row>
     <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B809" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -11044,6 +14924,11 @@
       </c>
     </row>
     <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B810" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -11057,6 +14942,11 @@
       </c>
     </row>
     <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B811" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -11070,6 +14960,11 @@
       </c>
     </row>
     <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B812" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -11083,6 +14978,11 @@
       </c>
     </row>
     <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B813" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -11096,6 +14996,11 @@
       </c>
     </row>
     <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B814" t="inlineStr">
         <is>
           <t>Santa María De La Paz</t>
@@ -11109,6 +15014,11 @@
       </c>
     </row>
     <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B815" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -11122,6 +15032,11 @@
       </c>
     </row>
     <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B816" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -11135,6 +15050,11 @@
       </c>
     </row>
     <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B817" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
@@ -11148,6 +15068,11 @@
       </c>
     </row>
     <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B818" t="inlineStr">
         <is>
           <t>Tepetongo</t>
@@ -11161,6 +15086,11 @@
       </c>
     </row>
     <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B819" t="inlineStr">
         <is>
           <t>Teúl De González Ortega</t>
@@ -11174,6 +15104,11 @@
       </c>
     </row>
     <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B820" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -11187,6 +15122,11 @@
       </c>
     </row>
     <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B821" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -11200,6 +15140,11 @@
       </c>
     </row>
     <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B822" t="inlineStr">
         <is>
           <t>Vetagrande</t>
@@ -11213,6 +15158,11 @@
       </c>
     </row>
     <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B823" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -11226,6 +15176,11 @@
       </c>
     </row>
     <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B824" t="inlineStr">
         <is>
           <t>Villa García</t>
@@ -11239,6 +15194,11 @@
       </c>
     </row>
     <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B825" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -11252,6 +15212,11 @@
       </c>
     </row>
     <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B826" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -11265,6 +15230,11 @@
       </c>
     </row>
     <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B827" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -11278,6 +15248,11 @@
       </c>
     </row>
     <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B828" t="inlineStr">
         <is>
           <t>Total</t>
